--- a/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4478,7 +4479,6 @@
           <t>新疆前海联合添泽债券C</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>89.39</t>
@@ -4510,7 +4510,6 @@
           <t>九泰天宝灵活配置混合C</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>68.13</t>
@@ -4526,6 +4525,4578 @@
       </c>
       <c r="H60" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3970</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3404</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4644</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4235</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168103</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰锐益定增灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2200</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168105</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰泰富定增主题灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6767</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4991</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3783</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3733</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3446</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2497</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003456</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银新目标灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>688888</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商聚潮产业成长混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>450010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国富策略回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001747</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001748</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达瑞祺灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0802</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002504</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>九泰锐升18个月封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>160621</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券(LOF)A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001741</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001742</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略精选灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002505</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华金鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006057</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>鹏华丰和债券（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9102,4 +9103,4498 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6809</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4871</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3309</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0898</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合H 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9530</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>450003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海潜力组合混合A 人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9530</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8229</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6559</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3858</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1413</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7898</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010271</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7419</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>450001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国富中国收益混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4808</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4364</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>860009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011429</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源民裕进取混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010272</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富兰克林国海价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2764</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>450011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国富研究精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>860058</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大阳光稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001314</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001315</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达新益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009215</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002871</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>860006</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>40.53</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.36</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009216</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达瑞川灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011025</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011026</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>九泰久元量化股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>860055</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>860056</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大阳光优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13597,4 +13598,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>119</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
+++ b/数据整理/stocks/A股/深证主板/002648-卫星石化.xlsx
@@ -13622,12 +13622,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>
